--- a/output/posiciones_codelco.xlsx
+++ b/output/posiciones_codelco.xlsx
@@ -466,9 +466,13 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,9 +489,13 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -495,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +512,11 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
@@ -514,7 +526,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +535,11 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
@@ -533,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -542,9 +558,13 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,18 +572,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,16 +595,20 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
@@ -590,16 +618,20 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
@@ -609,18 +641,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -628,16 +664,20 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
@@ -647,16 +687,20 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
@@ -666,16 +710,20 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
@@ -685,16 +733,20 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
@@ -704,16 +756,20 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
@@ -723,16 +779,20 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
@@ -742,16 +802,20 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
@@ -761,18 +825,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -780,7 +848,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/posiciones_codelco.xlsx
+++ b/output/posiciones_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>4003639</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -486,12 +486,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>4003639</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -503,18 +503,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>4003639</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>4003639</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,18 +549,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>4003639</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -572,283 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
         <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/posiciones_codelco.xlsx
+++ b/output/posiciones_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,16 +463,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00020</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4003639</t>
+          <t>4111752</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,98 +481,6 @@
       </c>
       <c r="E2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>00020</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4003639</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>00020</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4003639</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>00020</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4003639</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>00020</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4003639</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/posiciones_codelco.xlsx
+++ b/output/posiciones_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,16 +463,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00020</t>
+          <t>00030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4003639</t>
+          <t>4121266</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,16 +486,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00020</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4003639</t>
+          <t>4111662</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,11 +514,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4003639</t>
+          <t>4111752</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00020</t>
+          <t>00030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4003639</t>
+          <t>4121266</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,30 +549,122 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4111662</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>00020</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4003639</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4111752</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4121266</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4111662</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>00020</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4111752</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/posiciones_codelco.xlsx
+++ b/output/posiciones_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,16 +463,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4111752</t>
+          <t>4003640</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,6 +481,374 @@
       </c>
       <c r="E2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4003640</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
